--- a/mario/test/IOT_dummy.xlsx
+++ b/mario/test/IOT_dummy.xlsx
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/mohammadamintahavori/Documents/GitHub/MARIO/mario/test/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{25E61408-4C5A-5A41-97AB-814F67468CF0}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{10460172-1749-CE46-BDEC-F12B911228D5}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="0" yWindow="0" windowWidth="28800" windowHeight="18000" activeTab="10" xr2:uid="{CEC85D7C-5B4B-894B-A949-5EF332C1C6B0}"/>
+    <workbookView xWindow="0" yWindow="500" windowWidth="28800" windowHeight="16420" firstSheet="2" activeTab="17" xr2:uid="{CEC85D7C-5B4B-894B-A949-5EF332C1C6B0}"/>
   </bookViews>
   <sheets>
     <sheet name="all_data" sheetId="1" r:id="rId1"/>
@@ -24,7 +24,14 @@
     <sheet name="X" sheetId="4" r:id="rId9"/>
     <sheet name="w" sheetId="10" r:id="rId10"/>
     <sheet name="p" sheetId="11" r:id="rId11"/>
-    <sheet name="usefull" sheetId="12" r:id="rId12"/>
+    <sheet name="_y" sheetId="13" r:id="rId12"/>
+    <sheet name="b" sheetId="14" r:id="rId13"/>
+    <sheet name="g" sheetId="15" r:id="rId14"/>
+    <sheet name="_f" sheetId="16" r:id="rId15"/>
+    <sheet name="F" sheetId="17" r:id="rId16"/>
+    <sheet name="_m" sheetId="18" r:id="rId17"/>
+    <sheet name="M" sheetId="19" r:id="rId18"/>
+    <sheet name="usefull" sheetId="12" r:id="rId19"/>
   </sheets>
   <calcPr calcId="191029"/>
   <extLst>
@@ -46,7 +53,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="236" uniqueCount="17">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="377" uniqueCount="18">
   <si>
     <t>reg1</t>
   </si>
@@ -98,12 +105,15 @@
   <si>
     <t>v_total</t>
   </si>
+  <si>
+    <t>Y_total</t>
+  </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
-  <fonts count="2" x14ac:knownFonts="1">
+  <fonts count="3" x14ac:knownFonts="1">
     <font>
       <sz val="12"/>
       <color theme="1"/>
@@ -117,6 +127,13 @@
       <color theme="1"/>
       <name val="Arial"/>
       <family val="2"/>
+    </font>
+    <font>
+      <sz val="12"/>
+      <color rgb="FF000000"/>
+      <name val="Calibri"/>
+      <family val="2"/>
+      <scheme val="minor"/>
     </font>
   </fonts>
   <fills count="2">
@@ -139,9 +156,10 @@
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="2">
+  <cellXfs count="3">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1"/>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="0" applyFont="1"/>
   </cellXfs>
   <cellStyles count="1">
     <cellStyle name="Normal" xfId="0" builtinId="0"/>
@@ -795,7 +813,7 @@
   <dimension ref="A1:G7"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection activeCell="H32" sqref="H32"/>
+      <selection activeCell="M19" sqref="M19"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="16" x14ac:dyDescent="0.2"/>
@@ -944,8 +962,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{35FD4893-B845-B440-BC7B-085C69821F83}">
   <dimension ref="A1:D5"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="G10" sqref="G10"/>
+    <sheetView workbookViewId="0">
+      <selection activeCell="M19" sqref="M19"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="16" x14ac:dyDescent="0.2"/>
@@ -1018,11 +1036,461 @@
 </file>
 
 <file path=xl/worksheets/sheet12.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{1C1E5E29-E0F3-EE4E-B920-A0460F875ECA}">
-  <dimension ref="A1:E4"/>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{80D48694-F735-D045-B2FE-82301E387BDA}">
+  <dimension ref="A1:G7"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection activeCell="E12" sqref="E12"/>
+      <selection activeCell="J16" sqref="J16"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr baseColWidth="10" defaultRowHeight="16" x14ac:dyDescent="0.2"/>
+  <sheetData>
+    <row r="1" spans="1:7" x14ac:dyDescent="0.2">
+      <c r="D1" t="s">
+        <v>0</v>
+      </c>
+      <c r="E1" t="s">
+        <v>0</v>
+      </c>
+      <c r="F1" t="s">
+        <v>1</v>
+      </c>
+      <c r="G1" t="s">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="2" spans="1:7" x14ac:dyDescent="0.2">
+      <c r="D2" t="s">
+        <v>5</v>
+      </c>
+      <c r="E2" t="s">
+        <v>5</v>
+      </c>
+      <c r="F2" t="s">
+        <v>5</v>
+      </c>
+      <c r="G2" t="s">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="3" spans="1:7" x14ac:dyDescent="0.2">
+      <c r="D3" t="s">
+        <v>6</v>
+      </c>
+      <c r="E3" t="s">
+        <v>7</v>
+      </c>
+      <c r="F3" t="s">
+        <v>6</v>
+      </c>
+      <c r="G3" t="s">
+        <v>7</v>
+      </c>
+    </row>
+    <row r="4" spans="1:7" x14ac:dyDescent="0.2">
+      <c r="A4" t="s">
+        <v>0</v>
+      </c>
+      <c r="B4" t="s">
+        <v>2</v>
+      </c>
+      <c r="C4" t="s">
+        <v>3</v>
+      </c>
+      <c r="D4">
+        <f t="array" ref="D4:G7">all_data!H4:K7/SUM(Y!D4:G7)</f>
+        <v>0.13559322033898305</v>
+      </c>
+      <c r="E4">
+        <v>5.8757062146892657E-2</v>
+      </c>
+      <c r="F4">
+        <v>1.3559322033898305E-2</v>
+      </c>
+      <c r="G4">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="5" spans="1:7" x14ac:dyDescent="0.2">
+      <c r="A5" t="s">
+        <v>0</v>
+      </c>
+      <c r="B5" t="s">
+        <v>2</v>
+      </c>
+      <c r="C5" t="s">
+        <v>4</v>
+      </c>
+      <c r="D5">
+        <v>0.16949152542372881</v>
+      </c>
+      <c r="E5">
+        <v>1.6949152542372881E-2</v>
+      </c>
+      <c r="F5">
+        <v>2.0338983050847456E-2</v>
+      </c>
+      <c r="G5">
+        <v>1.1299435028248588E-2</v>
+      </c>
+    </row>
+    <row r="6" spans="1:7" x14ac:dyDescent="0.2">
+      <c r="A6" t="s">
+        <v>1</v>
+      </c>
+      <c r="B6" t="s">
+        <v>2</v>
+      </c>
+      <c r="C6" t="s">
+        <v>3</v>
+      </c>
+      <c r="D6">
+        <v>2.8248587570621469E-2</v>
+      </c>
+      <c r="E6">
+        <v>5.4237288135593219E-2</v>
+      </c>
+      <c r="F6">
+        <v>0.14915254237288136</v>
+      </c>
+      <c r="G6">
+        <v>3.6158192090395481E-2</v>
+      </c>
+    </row>
+    <row r="7" spans="1:7" x14ac:dyDescent="0.2">
+      <c r="A7" t="s">
+        <v>1</v>
+      </c>
+      <c r="B7" t="s">
+        <v>2</v>
+      </c>
+      <c r="C7" t="s">
+        <v>4</v>
+      </c>
+      <c r="D7">
+        <v>4.7457627118644069E-2</v>
+      </c>
+      <c r="E7">
+        <v>6.1016949152542375E-2</v>
+      </c>
+      <c r="F7">
+        <v>0.13559322033898305</v>
+      </c>
+      <c r="G7">
+        <v>6.2146892655367235E-2</v>
+      </c>
+    </row>
+  </sheetData>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet13.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{7C0CBF05-6FED-C040-B070-4A61052C4263}">
+  <dimension ref="A1:G7"/>
+  <sheetViews>
+    <sheetView workbookViewId="0">
+      <selection activeCell="R24" sqref="R24"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr baseColWidth="10" defaultRowHeight="16" x14ac:dyDescent="0.2"/>
+  <sheetData>
+    <row r="1" spans="1:7" x14ac:dyDescent="0.2">
+      <c r="D1" t="s">
+        <v>0</v>
+      </c>
+      <c r="E1" t="s">
+        <v>0</v>
+      </c>
+      <c r="F1" t="s">
+        <v>1</v>
+      </c>
+      <c r="G1" t="s">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="2" spans="1:7" x14ac:dyDescent="0.2">
+      <c r="D2" t="s">
+        <v>2</v>
+      </c>
+      <c r="E2" t="s">
+        <v>2</v>
+      </c>
+      <c r="F2" t="s">
+        <v>2</v>
+      </c>
+      <c r="G2" t="s">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="3" spans="1:7" x14ac:dyDescent="0.2">
+      <c r="D3" t="s">
+        <v>3</v>
+      </c>
+      <c r="E3" t="s">
+        <v>4</v>
+      </c>
+      <c r="F3" t="s">
+        <v>3</v>
+      </c>
+      <c r="G3" t="s">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="4" spans="1:7" x14ac:dyDescent="0.2">
+      <c r="A4" t="s">
+        <v>0</v>
+      </c>
+      <c r="B4" t="s">
+        <v>2</v>
+      </c>
+      <c r="C4" t="s">
+        <v>3</v>
+      </c>
+      <c r="D4">
+        <f t="array" ref="D4:G7">MMULT(MINVERSE(_xlfn.MUNIT(4)*X!D2:D5),Z!D4:G7)</f>
+        <v>8.4388185654008435E-2</v>
+      </c>
+      <c r="E4">
+        <v>0.13502109704641349</v>
+      </c>
+      <c r="F4">
+        <v>4.2194092827004216E-3</v>
+      </c>
+      <c r="G4">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="5" spans="1:7" x14ac:dyDescent="0.2">
+      <c r="A5" t="s">
+        <v>0</v>
+      </c>
+      <c r="B5" t="s">
+        <v>2</v>
+      </c>
+      <c r="C5" t="s">
+        <v>4</v>
+      </c>
+      <c r="D5">
+        <v>0.10869565217391304</v>
+      </c>
+      <c r="E5">
+        <v>4.3478260869565216E-2</v>
+      </c>
+      <c r="F5">
+        <v>8.6956521739130436E-3</v>
+      </c>
+      <c r="G5">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="6" spans="1:7" x14ac:dyDescent="0.2">
+      <c r="A6" t="s">
+        <v>1</v>
+      </c>
+      <c r="B6" t="s">
+        <v>2</v>
+      </c>
+      <c r="C6" t="s">
+        <v>3</v>
+      </c>
+      <c r="D6">
+        <v>1.6447368421052631E-2</v>
+      </c>
+      <c r="E6">
+        <v>2.6315789473684209E-2</v>
+      </c>
+      <c r="F6">
+        <v>0.14473684210526316</v>
+      </c>
+      <c r="G6">
+        <v>3.2894736842105261E-2</v>
+      </c>
+    </row>
+    <row r="7" spans="1:7" x14ac:dyDescent="0.2">
+      <c r="A7" t="s">
+        <v>1</v>
+      </c>
+      <c r="B7" t="s">
+        <v>2</v>
+      </c>
+      <c r="C7" t="s">
+        <v>4</v>
+      </c>
+      <c r="D7">
+        <v>0</v>
+      </c>
+      <c r="E7">
+        <v>8.5959885386819486E-3</v>
+      </c>
+      <c r="F7">
+        <v>0.10028653295128939</v>
+      </c>
+      <c r="G7">
+        <v>0.11461318051575931</v>
+      </c>
+    </row>
+  </sheetData>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet14.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{8AAF3935-334B-854D-AD72-C1DB6A5829B5}">
+  <dimension ref="A1:G7"/>
+  <sheetViews>
+    <sheetView workbookViewId="0">
+      <selection activeCell="I23" sqref="I23"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr baseColWidth="10" defaultRowHeight="16" x14ac:dyDescent="0.2"/>
+  <sheetData>
+    <row r="1" spans="1:7" x14ac:dyDescent="0.2">
+      <c r="D1" t="s">
+        <v>0</v>
+      </c>
+      <c r="E1" t="s">
+        <v>0</v>
+      </c>
+      <c r="F1" t="s">
+        <v>1</v>
+      </c>
+      <c r="G1" t="s">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="2" spans="1:7" x14ac:dyDescent="0.2">
+      <c r="D2" t="s">
+        <v>2</v>
+      </c>
+      <c r="E2" t="s">
+        <v>2</v>
+      </c>
+      <c r="F2" t="s">
+        <v>2</v>
+      </c>
+      <c r="G2" t="s">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="3" spans="1:7" x14ac:dyDescent="0.2">
+      <c r="D3" t="s">
+        <v>3</v>
+      </c>
+      <c r="E3" t="s">
+        <v>4</v>
+      </c>
+      <c r="F3" t="s">
+        <v>3</v>
+      </c>
+      <c r="G3" t="s">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="4" spans="1:7" x14ac:dyDescent="0.2">
+      <c r="A4" t="s">
+        <v>0</v>
+      </c>
+      <c r="B4" t="s">
+        <v>2</v>
+      </c>
+      <c r="C4" t="s">
+        <v>3</v>
+      </c>
+      <c r="D4">
+        <f t="array" ref="D4:G7">MINVERSE(_xlfn.MUNIT(4)-b!D4:G7)</f>
+        <v>1.1109334777291304</v>
+      </c>
+      <c r="E4">
+        <v>0.15701554587175351</v>
+      </c>
+      <c r="F4">
+        <v>7.1081280789281184E-3</v>
+      </c>
+      <c r="G4">
+        <v>2.640879640974613E-4</v>
+      </c>
+    </row>
+    <row r="5" spans="1:7" x14ac:dyDescent="0.2">
+      <c r="A5" t="s">
+        <v>0</v>
+      </c>
+      <c r="B5" t="s">
+        <v>2</v>
+      </c>
+      <c r="C5" t="s">
+        <v>4</v>
+      </c>
+      <c r="D5">
+        <v>0.1264734728087003</v>
+      </c>
+      <c r="E5">
+        <v>1.0636272378701932</v>
+      </c>
+      <c r="F5">
+        <v>1.1488136578267628E-2</v>
+      </c>
+      <c r="G5">
+        <v>4.2681822366455897E-4</v>
+      </c>
+    </row>
+    <row r="6" spans="1:7" x14ac:dyDescent="0.2">
+      <c r="A6" t="s">
+        <v>1</v>
+      </c>
+      <c r="B6" t="s">
+        <v>2</v>
+      </c>
+      <c r="C6" t="s">
+        <v>3</v>
+      </c>
+      <c r="D6">
+        <v>2.5413537342903796E-2</v>
+      </c>
+      <c r="E6">
+        <v>3.6301842324329071E-2</v>
+      </c>
+      <c r="F6">
+        <v>1.1748434226228377</v>
+      </c>
+      <c r="G6">
+        <v>4.3648905051883222E-2</v>
+      </c>
+    </row>
+    <row r="7" spans="1:7" x14ac:dyDescent="0.2">
+      <c r="A7" t="s">
+        <v>1</v>
+      </c>
+      <c r="B7" t="s">
+        <v>2</v>
+      </c>
+      <c r="C7" t="s">
+        <v>4</v>
+      </c>
+      <c r="D7">
+        <v>4.1064538039732477E-3</v>
+      </c>
+      <c r="E7">
+        <v>1.4438337200524582E-2</v>
+      </c>
+      <c r="F7">
+        <v>0.13318441489169613</v>
+      </c>
+      <c r="G7">
+        <v>1.1343980327879835</v>
+      </c>
+    </row>
+  </sheetData>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet15.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{1AE4BF53-A28C-8547-8286-68EDBB3C062C}">
+  <dimension ref="A1:E5"/>
+  <sheetViews>
+    <sheetView workbookViewId="0">
+      <selection activeCell="R29" sqref="R29"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="16" x14ac:dyDescent="0.2"/>
@@ -1071,6 +1539,374 @@
     </row>
     <row r="4" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A4" t="s">
+        <v>13</v>
+      </c>
+      <c r="B4">
+        <f t="array" ref="B4:E5">MMULT(_e!B4:E5,w!D4:G7)</f>
+        <v>4.864499712499927E-2</v>
+      </c>
+      <c r="C4">
+        <v>1.7930255999314998E-2</v>
+      </c>
+      <c r="D4">
+        <v>2.1541595228393568E-2</v>
+      </c>
+      <c r="E4">
+        <v>7.1894550007391367E-2</v>
+      </c>
+    </row>
+    <row r="5" spans="1:5" x14ac:dyDescent="0.2">
+      <c r="A5" t="s">
+        <v>14</v>
+      </c>
+      <c r="B5">
+        <v>3.2622262697118223E-2</v>
+      </c>
+      <c r="C5">
+        <v>1.823724746662371E-2</v>
+      </c>
+      <c r="D5">
+        <v>0.32461996372181257</v>
+      </c>
+      <c r="E5">
+        <v>0.12377410885831107</v>
+      </c>
+    </row>
+  </sheetData>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet16.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{CAC931EA-0167-7A4A-8DB8-C8BA56AB0036}">
+  <dimension ref="A1:E5"/>
+  <sheetViews>
+    <sheetView workbookViewId="0">
+      <selection activeCell="T23" sqref="T23"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr baseColWidth="10" defaultRowHeight="16" x14ac:dyDescent="0.2"/>
+  <sheetData>
+    <row r="1" spans="1:5" x14ac:dyDescent="0.2">
+      <c r="B1" t="s">
+        <v>0</v>
+      </c>
+      <c r="C1" t="s">
+        <v>0</v>
+      </c>
+      <c r="D1" t="s">
+        <v>1</v>
+      </c>
+      <c r="E1" t="s">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="2" spans="1:5" x14ac:dyDescent="0.2">
+      <c r="B2" t="s">
+        <v>2</v>
+      </c>
+      <c r="C2" t="s">
+        <v>2</v>
+      </c>
+      <c r="D2" t="s">
+        <v>2</v>
+      </c>
+      <c r="E2" t="s">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="3" spans="1:5" x14ac:dyDescent="0.2">
+      <c r="B3" t="s">
+        <v>3</v>
+      </c>
+      <c r="C3" t="s">
+        <v>4</v>
+      </c>
+      <c r="D3" t="s">
+        <v>3</v>
+      </c>
+      <c r="E3" t="s">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="4" spans="1:5" x14ac:dyDescent="0.2">
+      <c r="A4" t="s">
+        <v>13</v>
+      </c>
+      <c r="B4">
+        <f t="array" ref="B4:E5">MMULT(_f!B4:E5,_xlfn.MUNIT(4)*usefull!D9:D12)</f>
+        <v>8.9506794709998658</v>
+      </c>
+      <c r="C4">
+        <v>3.4605394078677945</v>
+      </c>
+      <c r="D4">
+        <v>5.1053580691292755</v>
+      </c>
+      <c r="E4">
+        <v>19.483423052003062</v>
+      </c>
+    </row>
+    <row r="5" spans="1:5" x14ac:dyDescent="0.2">
+      <c r="A5" t="s">
+        <v>14</v>
+      </c>
+      <c r="B5">
+        <v>6.0024963362697532</v>
+      </c>
+      <c r="C5">
+        <v>3.519788761058376</v>
+      </c>
+      <c r="D5">
+        <v>76.93493140206958</v>
+      </c>
+      <c r="E5">
+        <v>33.542783500602297</v>
+      </c>
+    </row>
+  </sheetData>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet17.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{FD2CB31C-6035-6C40-9556-090721FC9E4B}">
+  <dimension ref="A1:E5"/>
+  <sheetViews>
+    <sheetView workbookViewId="0">
+      <selection activeCell="N10" sqref="N10"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr baseColWidth="10" defaultRowHeight="16" x14ac:dyDescent="0.2"/>
+  <sheetData>
+    <row r="1" spans="1:5" x14ac:dyDescent="0.2">
+      <c r="B1" t="s">
+        <v>0</v>
+      </c>
+      <c r="C1" t="s">
+        <v>0</v>
+      </c>
+      <c r="D1" t="s">
+        <v>1</v>
+      </c>
+      <c r="E1" t="s">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="2" spans="1:5" x14ac:dyDescent="0.2">
+      <c r="B2" t="s">
+        <v>2</v>
+      </c>
+      <c r="C2" t="s">
+        <v>2</v>
+      </c>
+      <c r="D2" t="s">
+        <v>2</v>
+      </c>
+      <c r="E2" t="s">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="3" spans="1:5" x14ac:dyDescent="0.2">
+      <c r="B3" t="s">
+        <v>3</v>
+      </c>
+      <c r="C3" t="s">
+        <v>4</v>
+      </c>
+      <c r="D3" t="s">
+        <v>3</v>
+      </c>
+      <c r="E3" t="s">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="4" spans="1:5" x14ac:dyDescent="0.2">
+      <c r="A4" t="s">
+        <v>10</v>
+      </c>
+      <c r="B4">
+        <f t="array" ref="B4:E5">MMULT(_v!B4:E5,w!D4:G7)</f>
+        <v>0.68866565520056278</v>
+      </c>
+      <c r="C4">
+        <v>0.68127128546099724</v>
+      </c>
+      <c r="D4">
+        <v>0.48173300839944833</v>
+      </c>
+      <c r="E4">
+        <v>0.66283925593525717</v>
+      </c>
+    </row>
+    <row r="5" spans="1:5" x14ac:dyDescent="0.2">
+      <c r="A5" t="s">
+        <v>11</v>
+      </c>
+      <c r="B5">
+        <v>0.31133434479943689</v>
+      </c>
+      <c r="C5">
+        <v>0.31872871453900287</v>
+      </c>
+      <c r="D5">
+        <v>0.51826699160055179</v>
+      </c>
+      <c r="E5">
+        <v>0.33716074406474272</v>
+      </c>
+    </row>
+  </sheetData>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet18.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{29C4C3EE-6C05-FF42-9A36-F65EA63B30E6}">
+  <dimension ref="A1:E5"/>
+  <sheetViews>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="I9" sqref="I9"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr baseColWidth="10" defaultRowHeight="16" x14ac:dyDescent="0.2"/>
+  <sheetData>
+    <row r="1" spans="1:5" x14ac:dyDescent="0.2">
+      <c r="B1" t="s">
+        <v>0</v>
+      </c>
+      <c r="C1" t="s">
+        <v>0</v>
+      </c>
+      <c r="D1" t="s">
+        <v>1</v>
+      </c>
+      <c r="E1" t="s">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="2" spans="1:5" x14ac:dyDescent="0.2">
+      <c r="B2" t="s">
+        <v>2</v>
+      </c>
+      <c r="C2" t="s">
+        <v>2</v>
+      </c>
+      <c r="D2" t="s">
+        <v>2</v>
+      </c>
+      <c r="E2" t="s">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="3" spans="1:5" x14ac:dyDescent="0.2">
+      <c r="B3" t="s">
+        <v>3</v>
+      </c>
+      <c r="C3" t="s">
+        <v>4</v>
+      </c>
+      <c r="D3" t="s">
+        <v>3</v>
+      </c>
+      <c r="E3" t="s">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="4" spans="1:5" x14ac:dyDescent="0.2">
+      <c r="A4" s="2" t="s">
+        <v>10</v>
+      </c>
+      <c r="B4">
+        <f t="array" ref="B4:E5">MMULT(_m!B4:E5,_xlfn.MUNIT(4)*usefull!D9:D12)</f>
+        <v>126.71448055690355</v>
+      </c>
+      <c r="C4">
+        <v>131.48535809397248</v>
+      </c>
+      <c r="D4">
+        <v>114.17072299066925</v>
+      </c>
+      <c r="E4">
+        <v>179.62943835845468</v>
+      </c>
+    </row>
+    <row r="5" spans="1:5" x14ac:dyDescent="0.2">
+      <c r="A5" s="2" t="s">
+        <v>11</v>
+      </c>
+      <c r="B5">
+        <v>57.285519443096391</v>
+      </c>
+      <c r="C5">
+        <v>61.514641906027556</v>
+      </c>
+      <c r="D5">
+        <v>122.82927700933077</v>
+      </c>
+      <c r="E5">
+        <v>91.370561641545279</v>
+      </c>
+    </row>
+  </sheetData>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet19.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{1C1E5E29-E0F3-EE4E-B920-A0460F875ECA}">
+  <dimension ref="A1:E12"/>
+  <sheetViews>
+    <sheetView workbookViewId="0">
+      <selection activeCell="N17" sqref="N17"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr baseColWidth="10" defaultRowHeight="16" x14ac:dyDescent="0.2"/>
+  <sheetData>
+    <row r="1" spans="1:5" x14ac:dyDescent="0.2">
+      <c r="B1" t="s">
+        <v>0</v>
+      </c>
+      <c r="C1" t="s">
+        <v>0</v>
+      </c>
+      <c r="D1" t="s">
+        <v>1</v>
+      </c>
+      <c r="E1" t="s">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="2" spans="1:5" x14ac:dyDescent="0.2">
+      <c r="B2" t="s">
+        <v>2</v>
+      </c>
+      <c r="C2" t="s">
+        <v>2</v>
+      </c>
+      <c r="D2" t="s">
+        <v>2</v>
+      </c>
+      <c r="E2" t="s">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="3" spans="1:5" x14ac:dyDescent="0.2">
+      <c r="B3" t="s">
+        <v>3</v>
+      </c>
+      <c r="C3" t="s">
+        <v>4</v>
+      </c>
+      <c r="D3" t="s">
+        <v>3</v>
+      </c>
+      <c r="E3" t="s">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="4" spans="1:5" x14ac:dyDescent="0.2">
+      <c r="A4" t="s">
         <v>16</v>
       </c>
       <c r="B4">
@@ -1088,6 +1924,71 @@
       <c r="E4">
         <f>SUM(_v!E4:E5)</f>
         <v>0.85673352435530081</v>
+      </c>
+    </row>
+    <row r="8" spans="1:5" x14ac:dyDescent="0.2">
+      <c r="D8" t="s">
+        <v>17</v>
+      </c>
+    </row>
+    <row r="9" spans="1:5" x14ac:dyDescent="0.2">
+      <c r="A9" t="s">
+        <v>0</v>
+      </c>
+      <c r="B9" t="s">
+        <v>2</v>
+      </c>
+      <c r="C9" t="s">
+        <v>3</v>
+      </c>
+      <c r="D9">
+        <f>SUM(Y!D4:G4)</f>
+        <v>184</v>
+      </c>
+    </row>
+    <row r="10" spans="1:5" x14ac:dyDescent="0.2">
+      <c r="A10" t="s">
+        <v>0</v>
+      </c>
+      <c r="B10" t="s">
+        <v>2</v>
+      </c>
+      <c r="C10" t="s">
+        <v>4</v>
+      </c>
+      <c r="D10">
+        <f>SUM(Y!D5:G5)</f>
+        <v>193</v>
+      </c>
+    </row>
+    <row r="11" spans="1:5" x14ac:dyDescent="0.2">
+      <c r="A11" t="s">
+        <v>1</v>
+      </c>
+      <c r="B11" t="s">
+        <v>2</v>
+      </c>
+      <c r="C11" t="s">
+        <v>3</v>
+      </c>
+      <c r="D11">
+        <f>SUM(Y!D6:G6)</f>
+        <v>237</v>
+      </c>
+    </row>
+    <row r="12" spans="1:5" x14ac:dyDescent="0.2">
+      <c r="A12" t="s">
+        <v>1</v>
+      </c>
+      <c r="B12" t="s">
+        <v>2</v>
+      </c>
+      <c r="C12" t="s">
+        <v>4</v>
+      </c>
+      <c r="D12">
+        <f>SUM(Y!D7:G7)</f>
+        <v>271</v>
       </c>
     </row>
   </sheetData>
@@ -1192,7 +2093,7 @@
   <dimension ref="A1:E5"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection activeCell="B1" sqref="B1:E3"/>
+      <selection activeCell="L12" sqref="L12"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="16" x14ac:dyDescent="0.2"/>
@@ -1467,7 +2368,7 @@
   <dimension ref="A1:G7"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection activeCell="D5" sqref="D5"/>
+      <selection activeCell="S24" sqref="S24"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="16" x14ac:dyDescent="0.2"/>
@@ -1767,7 +2668,7 @@
   <dimension ref="A1:G7"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection activeCell="L34" sqref="L34"/>
+      <selection activeCell="A4" sqref="A4:C7"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="16" x14ac:dyDescent="0.2"/>

--- a/mario/test/IOT_dummy.xlsx
+++ b/mario/test/IOT_dummy.xlsx
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/mohammadamintahavori/Documents/GitHub/MARIO/mario/test/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{10460172-1749-CE46-BDEC-F12B911228D5}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{10128AC3-0094-2245-9C73-1CF28C8968EF}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="0" yWindow="500" windowWidth="28800" windowHeight="16420" firstSheet="2" activeTab="17" xr2:uid="{CEC85D7C-5B4B-894B-A949-5EF332C1C6B0}"/>
+    <workbookView xWindow="0" yWindow="500" windowWidth="28800" windowHeight="16420" firstSheet="4" activeTab="18" xr2:uid="{CEC85D7C-5B4B-894B-A949-5EF332C1C6B0}"/>
   </bookViews>
   <sheets>
     <sheet name="all_data" sheetId="1" r:id="rId1"/>
@@ -31,7 +31,8 @@
     <sheet name="F" sheetId="17" r:id="rId16"/>
     <sheet name="_m" sheetId="18" r:id="rId17"/>
     <sheet name="M" sheetId="19" r:id="rId18"/>
-    <sheet name="usefull" sheetId="12" r:id="rId19"/>
+    <sheet name="units" sheetId="20" r:id="rId19"/>
+    <sheet name="usefull" sheetId="12" r:id="rId20"/>
   </sheets>
   <calcPr calcId="191029"/>
   <extLst>
@@ -53,7 +54,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="377" uniqueCount="18">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="402" uniqueCount="24">
   <si>
     <t>reg1</t>
   </si>
@@ -107,6 +108,24 @@
   </si>
   <si>
     <t>Y_total</t>
+  </si>
+  <si>
+    <t>unit</t>
+  </si>
+  <si>
+    <t>eur</t>
+  </si>
+  <si>
+    <t>kg</t>
+  </si>
+  <si>
+    <t>m2</t>
+  </si>
+  <si>
+    <t>Factor of production</t>
+  </si>
+  <si>
+    <t>Satellite account</t>
   </si>
 </sst>
 </file>
@@ -477,7 +496,7 @@
   <dimension ref="A1:L11"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection activeCell="L5" sqref="L5"/>
+      <selection activeCell="L19" sqref="L19"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="16" x14ac:dyDescent="0.2"/>
@@ -1765,7 +1784,7 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{29C4C3EE-6C05-FF42-9A36-F65EA63B30E6}">
   <dimension ref="A1:E5"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
+    <sheetView workbookViewId="0">
       <selection activeCell="I9" sqref="I9"/>
     </sheetView>
   </sheetViews>
@@ -1854,141 +1873,106 @@
 </file>
 
 <file path=xl/worksheets/sheet19.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{1C1E5E29-E0F3-EE4E-B920-A0460F875ECA}">
-  <dimension ref="A1:E12"/>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{2DAE65AB-EAB4-474B-B367-27AB37CA61C5}">
+  <dimension ref="A1:C9"/>
   <sheetViews>
-    <sheetView workbookViewId="0">
-      <selection activeCell="N17" sqref="N17"/>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="G8" sqref="G8"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="16" x14ac:dyDescent="0.2"/>
   <sheetData>
-    <row r="1" spans="1:5" x14ac:dyDescent="0.2">
-      <c r="B1" t="s">
-        <v>0</v>
-      </c>
+    <row r="1" spans="1:3" x14ac:dyDescent="0.2">
       <c r="C1" t="s">
-        <v>0</v>
-      </c>
-      <c r="D1" t="s">
-        <v>1</v>
-      </c>
-      <c r="E1" t="s">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="2" spans="1:5" x14ac:dyDescent="0.2">
+        <v>18</v>
+      </c>
+    </row>
+    <row r="2" spans="1:3" x14ac:dyDescent="0.2">
+      <c r="A2" t="s">
+        <v>2</v>
+      </c>
       <c r="B2" t="s">
-        <v>2</v>
+        <v>3</v>
       </c>
       <c r="C2" t="s">
-        <v>2</v>
-      </c>
-      <c r="D2" t="s">
-        <v>2</v>
-      </c>
-      <c r="E2" t="s">
-        <v>2</v>
-      </c>
-    </row>
-    <row r="3" spans="1:5" x14ac:dyDescent="0.2">
+        <v>19</v>
+      </c>
+    </row>
+    <row r="3" spans="1:3" x14ac:dyDescent="0.2">
+      <c r="A3" t="s">
+        <v>2</v>
+      </c>
       <c r="B3" t="s">
-        <v>3</v>
+        <v>4</v>
       </c>
       <c r="C3" t="s">
-        <v>4</v>
-      </c>
-      <c r="D3" t="s">
-        <v>3</v>
-      </c>
-      <c r="E3" t="s">
-        <v>4</v>
-      </c>
-    </row>
-    <row r="4" spans="1:5" x14ac:dyDescent="0.2">
+        <v>19</v>
+      </c>
+    </row>
+    <row r="4" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A4" t="s">
-        <v>16</v>
-      </c>
-      <c r="B4">
-        <f>SUM(_v!B4:B5)</f>
-        <v>0.78902953586497881</v>
-      </c>
-      <c r="C4">
-        <f>SUM(_v!C4:C5)</f>
-        <v>0.76956521739130435</v>
-      </c>
-      <c r="D4">
-        <f>SUM(_v!D4:D5)</f>
-        <v>0.73026315789473673</v>
-      </c>
-      <c r="E4">
-        <f>SUM(_v!E4:E5)</f>
-        <v>0.85673352435530081</v>
-      </c>
-    </row>
-    <row r="8" spans="1:5" x14ac:dyDescent="0.2">
-      <c r="D8" t="s">
-        <v>17</v>
-      </c>
-    </row>
-    <row r="9" spans="1:5" x14ac:dyDescent="0.2">
+        <v>2</v>
+      </c>
+      <c r="B4" t="s">
+        <v>3</v>
+      </c>
+      <c r="C4" t="s">
+        <v>19</v>
+      </c>
+    </row>
+    <row r="5" spans="1:3" x14ac:dyDescent="0.2">
+      <c r="A5" t="s">
+        <v>2</v>
+      </c>
+      <c r="B5" t="s">
+        <v>4</v>
+      </c>
+      <c r="C5" t="s">
+        <v>19</v>
+      </c>
+    </row>
+    <row r="6" spans="1:3" x14ac:dyDescent="0.2">
+      <c r="A6" t="s">
+        <v>22</v>
+      </c>
+      <c r="B6" t="s">
+        <v>10</v>
+      </c>
+      <c r="C6" t="s">
+        <v>19</v>
+      </c>
+    </row>
+    <row r="7" spans="1:3" x14ac:dyDescent="0.2">
+      <c r="A7" t="s">
+        <v>22</v>
+      </c>
+      <c r="B7" t="s">
+        <v>11</v>
+      </c>
+      <c r="C7" t="s">
+        <v>19</v>
+      </c>
+    </row>
+    <row r="8" spans="1:3" x14ac:dyDescent="0.2">
+      <c r="A8" t="s">
+        <v>23</v>
+      </c>
+      <c r="B8" t="s">
+        <v>13</v>
+      </c>
+      <c r="C8" t="s">
+        <v>20</v>
+      </c>
+    </row>
+    <row r="9" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A9" t="s">
-        <v>0</v>
+        <v>23</v>
       </c>
       <c r="B9" t="s">
-        <v>2</v>
+        <v>14</v>
       </c>
       <c r="C9" t="s">
-        <v>3</v>
-      </c>
-      <c r="D9">
-        <f>SUM(Y!D4:G4)</f>
-        <v>184</v>
-      </c>
-    </row>
-    <row r="10" spans="1:5" x14ac:dyDescent="0.2">
-      <c r="A10" t="s">
-        <v>0</v>
-      </c>
-      <c r="B10" t="s">
-        <v>2</v>
-      </c>
-      <c r="C10" t="s">
-        <v>4</v>
-      </c>
-      <c r="D10">
-        <f>SUM(Y!D5:G5)</f>
-        <v>193</v>
-      </c>
-    </row>
-    <row r="11" spans="1:5" x14ac:dyDescent="0.2">
-      <c r="A11" t="s">
-        <v>1</v>
-      </c>
-      <c r="B11" t="s">
-        <v>2</v>
-      </c>
-      <c r="C11" t="s">
-        <v>3</v>
-      </c>
-      <c r="D11">
-        <f>SUM(Y!D6:G6)</f>
-        <v>237</v>
-      </c>
-    </row>
-    <row r="12" spans="1:5" x14ac:dyDescent="0.2">
-      <c r="A12" t="s">
-        <v>1</v>
-      </c>
-      <c r="B12" t="s">
-        <v>2</v>
-      </c>
-      <c r="C12" t="s">
-        <v>4</v>
-      </c>
-      <c r="D12">
-        <f>SUM(Y!D7:G7)</f>
-        <v>271</v>
+        <v>21</v>
       </c>
     </row>
   </sheetData>
@@ -2088,6 +2072,149 @@
 </worksheet>
 </file>
 
+<file path=xl/worksheets/sheet20.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{1C1E5E29-E0F3-EE4E-B920-A0460F875ECA}">
+  <dimension ref="A1:E12"/>
+  <sheetViews>
+    <sheetView workbookViewId="0">
+      <selection activeCell="N17" sqref="N17"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr baseColWidth="10" defaultRowHeight="16" x14ac:dyDescent="0.2"/>
+  <sheetData>
+    <row r="1" spans="1:5" x14ac:dyDescent="0.2">
+      <c r="B1" t="s">
+        <v>0</v>
+      </c>
+      <c r="C1" t="s">
+        <v>0</v>
+      </c>
+      <c r="D1" t="s">
+        <v>1</v>
+      </c>
+      <c r="E1" t="s">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="2" spans="1:5" x14ac:dyDescent="0.2">
+      <c r="B2" t="s">
+        <v>2</v>
+      </c>
+      <c r="C2" t="s">
+        <v>2</v>
+      </c>
+      <c r="D2" t="s">
+        <v>2</v>
+      </c>
+      <c r="E2" t="s">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="3" spans="1:5" x14ac:dyDescent="0.2">
+      <c r="B3" t="s">
+        <v>3</v>
+      </c>
+      <c r="C3" t="s">
+        <v>4</v>
+      </c>
+      <c r="D3" t="s">
+        <v>3</v>
+      </c>
+      <c r="E3" t="s">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="4" spans="1:5" x14ac:dyDescent="0.2">
+      <c r="A4" t="s">
+        <v>16</v>
+      </c>
+      <c r="B4">
+        <f>SUM(_v!B4:B5)</f>
+        <v>0.78902953586497881</v>
+      </c>
+      <c r="C4">
+        <f>SUM(_v!C4:C5)</f>
+        <v>0.76956521739130435</v>
+      </c>
+      <c r="D4">
+        <f>SUM(_v!D4:D5)</f>
+        <v>0.73026315789473673</v>
+      </c>
+      <c r="E4">
+        <f>SUM(_v!E4:E5)</f>
+        <v>0.85673352435530081</v>
+      </c>
+    </row>
+    <row r="8" spans="1:5" x14ac:dyDescent="0.2">
+      <c r="D8" t="s">
+        <v>17</v>
+      </c>
+    </row>
+    <row r="9" spans="1:5" x14ac:dyDescent="0.2">
+      <c r="A9" t="s">
+        <v>0</v>
+      </c>
+      <c r="B9" t="s">
+        <v>2</v>
+      </c>
+      <c r="C9" t="s">
+        <v>3</v>
+      </c>
+      <c r="D9">
+        <f>SUM(Y!D4:G4)</f>
+        <v>184</v>
+      </c>
+    </row>
+    <row r="10" spans="1:5" x14ac:dyDescent="0.2">
+      <c r="A10" t="s">
+        <v>0</v>
+      </c>
+      <c r="B10" t="s">
+        <v>2</v>
+      </c>
+      <c r="C10" t="s">
+        <v>4</v>
+      </c>
+      <c r="D10">
+        <f>SUM(Y!D5:G5)</f>
+        <v>193</v>
+      </c>
+    </row>
+    <row r="11" spans="1:5" x14ac:dyDescent="0.2">
+      <c r="A11" t="s">
+        <v>1</v>
+      </c>
+      <c r="B11" t="s">
+        <v>2</v>
+      </c>
+      <c r="C11" t="s">
+        <v>3</v>
+      </c>
+      <c r="D11">
+        <f>SUM(Y!D6:G6)</f>
+        <v>237</v>
+      </c>
+    </row>
+    <row r="12" spans="1:5" x14ac:dyDescent="0.2">
+      <c r="A12" t="s">
+        <v>1</v>
+      </c>
+      <c r="B12" t="s">
+        <v>2</v>
+      </c>
+      <c r="C12" t="s">
+        <v>4</v>
+      </c>
+      <c r="D12">
+        <f>SUM(Y!D7:G7)</f>
+        <v>271</v>
+      </c>
+    </row>
+  </sheetData>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+</worksheet>
+</file>
+
 <file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{DA5946CB-045A-6947-8800-8FD8EBA15667}">
   <dimension ref="A1:E5"/>
@@ -2185,7 +2312,7 @@
   <dimension ref="A1:E5"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection activeCell="H20" sqref="H20"/>
+      <selection activeCell="E16" sqref="E16"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="16" x14ac:dyDescent="0.2"/>
